--- a/PSMLib/已有封装登记.xlsx
+++ b/PSMLib/已有封装登记.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,14 +109,134 @@
   </si>
   <si>
     <t>HC49S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lqfp50p1200x1200x160-64</t>
+  </si>
+  <si>
+    <t>LQFP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stm32f103rbt6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd254p-2x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.54间距排针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd254p-3x1</t>
+  </si>
+  <si>
+    <t>hd254p-15x2</t>
+  </si>
+  <si>
+    <t>sh254p-10x2</t>
+  </si>
+  <si>
+    <t>2.54间距排针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.54间距牛角座10X2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JLINK插座 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcin350d135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.35DC插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fusm1812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1812自恢复保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sod3716x135</t>
+  </si>
+  <si>
+    <t>SOD123  6.2v稳压管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capae630x540</t>
+  </si>
+  <si>
+    <t>10uf铝电解电容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sot223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ams1117-3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xtal32768</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时钟晶振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw-pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ledm0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603led</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>machd2</t>
+  </si>
+  <si>
+    <t>直径为2的机械孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soic127p600x175-8</t>
+  </si>
+  <si>
+    <t>soic8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM393</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,11 +285,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -243,6 +368,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -277,6 +403,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,21 +579,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28.375" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -488,7 +615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -496,7 +623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -504,7 +631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -512,7 +639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -520,7 +647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -528,7 +655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -536,7 +663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -547,7 +674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -556,6 +683,135 @@
       </c>
       <c r="C10" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -566,12 +822,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -580,12 +836,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PSMLib/已有封装登记.xlsx
+++ b/PSMLib/已有封装登记.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +229,17 @@
   </si>
   <si>
     <t>LM393</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt-wh06-2</t>
+  </si>
+  <si>
+    <t>电位器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电位器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -812,6 +823,17 @@
       </c>
       <c r="C25" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/PSMLib/已有封装登记.xlsx
+++ b/PSMLib/已有封装登记.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,17 @@
   </si>
   <si>
     <t>电位器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to263-5l</t>
+  </si>
+  <si>
+    <t>xl6009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -834,6 +845,17 @@
       </c>
       <c r="C26" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/PSMLib/已有封装登记.xlsx
+++ b/PSMLib/已有封装登记.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,27 @@
   </si>
   <si>
     <t>to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inm120x120x70</t>
+  </si>
+  <si>
+    <t>12*12*7贴片功率电感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do-214aa</t>
+  </si>
+  <si>
+    <t>1N5824二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capae800x1050</t>
+  </si>
+  <si>
+    <t>8*10.5铝电解电容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -856,6 +877,33 @@
       </c>
       <c r="C27" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/PSMLib/已有封装登记.xlsx
+++ b/PSMLib/已有封装登记.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +272,13 @@
   </si>
   <si>
     <t>8*10.5铝电解电容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ths5r00d1r00</t>
+  </si>
+  <si>
+    <t>方形通孔焊盘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -904,6 +911,14 @@
       </c>
       <c r="B30" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/PSMLib/已有封装登记.xlsx
+++ b/PSMLib/已有封装登记.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
   <si>
     <t>封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,57 @@
   </si>
   <si>
     <t>方形通孔焊盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axe650124</t>
+  </si>
+  <si>
+    <t>TI电源管理IC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板间连接器0.4间距，50PIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ind300x300d110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3X3X1.1CM功率电感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ind470x470x280</t>
+  </si>
+  <si>
+    <t>4.7X4.7X2.8功率电感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do214ab</t>
+  </si>
+  <si>
+    <t>SS34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd254p-8x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd254p-10x1</t>
+  </si>
+  <si>
+    <t>hd254p-6x2</t>
+  </si>
+  <si>
+    <t>hd254p-8x2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -919,6 +970,81 @@
       </c>
       <c r="B31" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/PSMLib/已有封装登记.xlsx
+++ b/PSMLib/已有封装登记.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +330,10 @@
   </si>
   <si>
     <t>hd254p-8x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd254p-20x1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1044,6 +1048,14 @@
         <v>83</v>
       </c>
       <c r="B40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
         <v>28</v>
       </c>
     </row>

--- a/PSMLib/已有封装登记.xlsx
+++ b/PSMLib/已有封装登记.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
   <si>
     <t>封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,43 +297,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3X3X1.1CM功率电感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7X4.7X2.8功率电感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd254p-8x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd254p-10x1</t>
+  </si>
+  <si>
+    <t>hd254p-6x2</t>
+  </si>
+  <si>
+    <t>hd254p-8x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd254p-20x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wson50p300x300x80-10</t>
+  </si>
+  <si>
+    <t>SON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM3509</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc-82</t>
+  </si>
+  <si>
+    <t>SC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT9013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ind300x300d110</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3X3X1.1CM功率电感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ind470x470x280</t>
-  </si>
-  <si>
-    <t>4.7X4.7X2.8功率电感</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>do214ab</t>
-  </si>
-  <si>
-    <t>SS34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hd254p-8x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hd254p-10x1</t>
-  </si>
-  <si>
-    <t>hd254p-6x2</t>
-  </si>
-  <si>
-    <t>hd254p-8x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hd254p-20x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd254p-2x2</t>
+  </si>
+  <si>
+    <t>wson40p300x300x80-12</t>
+  </si>
+  <si>
+    <t>SON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS65133</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -997,31 +1035,31 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
         <v>74</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
         <v>28</v>
@@ -1029,7 +1067,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
         <v>28</v>
@@ -1037,7 +1075,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
         <v>28</v>
@@ -1045,7 +1083,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
         <v>28</v>
@@ -1053,10 +1091,51 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/PSMLib/已有封装登记.xlsx
+++ b/PSMLib/已有封装登记.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
   <si>
     <t>封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,6 +372,36 @@
   </si>
   <si>
     <t>TPS65133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indc2520</t>
+  </si>
+  <si>
+    <t>电感2510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片式功率电感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功率电感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indc260x280x120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sod323</t>
+  </si>
+  <si>
+    <t>B0530WS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二极管</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1136,6 +1166,36 @@
       </c>
       <c r="C45" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/PSMLib/已有封装登记.xlsx
+++ b/PSMLib/已有封装登记.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
   <si>
     <t>封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,6 +402,35 @@
   </si>
   <si>
     <t>二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bga65p7000x700-80</t>
+  </si>
+  <si>
+    <t>gba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tc358870xbg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdso-g5</t>
+  </si>
+  <si>
+    <t>pdso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tps3125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdmi-c</t>
+  </si>
+  <si>
+    <t>HDMI TYPEA接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -753,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1196,6 +1225,36 @@
       </c>
       <c r="C48" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/PSMLib/已有封装登记.xlsx
+++ b/PSMLib/已有封装登记.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="126">
   <si>
     <t>封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -431,6 +431,61 @@
   </si>
   <si>
     <t>HDMI TYPEA接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lqfp50p900x900-64</t>
+  </si>
+  <si>
+    <t>LQFP64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F303CBT6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lga65p400x400-16</t>
+  </si>
+  <si>
+    <t>LGA16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3GD20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lga80p300x500-14</t>
+  </si>
+  <si>
+    <t>LGA14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSM303DLHC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soic127p866x393-14</t>
+  </si>
+  <si>
+    <t>SOIC14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS4354</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tssop50p440x970-38</t>
+  </si>
+  <si>
+    <t>TSSOP38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPD12S520</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1255,6 +1310,61 @@
       </c>
       <c r="B51" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/PSMLib/已有封装登记.xlsx
+++ b/PSMLib/已有封装登记.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="140">
   <si>
     <t>封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,455 +38,505 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>resc0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capc0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indc0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resc0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lqfp50p900x900x160-48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQFP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603贴片电容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603贴片电感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603贴片电阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0805贴片电容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0805贴片电感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0805贴片电阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sot230p700x180-4</t>
+  </si>
+  <si>
+    <t>sot223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tps70933</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xtal-hc49s</t>
+  </si>
+  <si>
+    <t>hc49s直插晶振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC49S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lqfp50p1200x1200x160-64</t>
+  </si>
+  <si>
+    <t>LQFP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stm32f103rbt6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd254p-2x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.54间距排针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd254p-3x1</t>
+  </si>
+  <si>
+    <t>hd254p-15x2</t>
+  </si>
+  <si>
+    <t>sh254p-10x2</t>
+  </si>
+  <si>
+    <t>2.54间距排针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.54间距牛角座10X2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JLINK插座 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcin350d135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.35DC插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fusm1812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1812自恢复保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sod3716x135</t>
+  </si>
+  <si>
+    <t>SOD123  6.2v稳压管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capae630x540</t>
+  </si>
+  <si>
+    <t>10uf铝电解电容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sot223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ams1117-3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xtal32768</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时钟晶振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ledm0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603led</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>machd2</t>
+  </si>
+  <si>
+    <t>直径为2的机械孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soic127p600x175-8</t>
+  </si>
+  <si>
+    <t>soic8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM393</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt-wh06-2</t>
+  </si>
+  <si>
+    <t>电位器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电位器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to263-5l</t>
+  </si>
+  <si>
+    <t>xl6009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inm120x120x70</t>
+  </si>
+  <si>
+    <t>12*12*7贴片功率电感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do-214aa</t>
+  </si>
+  <si>
+    <t>1N5824二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capae800x1050</t>
+  </si>
+  <si>
+    <t>8*10.5铝电解电容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ths5r00d1r00</t>
+  </si>
+  <si>
+    <t>方形通孔焊盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axe650124</t>
+  </si>
+  <si>
+    <t>TI电源管理IC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板间连接器0.4间距，50PIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3X3X1.1CM功率电感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7X4.7X2.8功率电感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd254p-8x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd254p-10x1</t>
+  </si>
+  <si>
+    <t>hd254p-6x2</t>
+  </si>
+  <si>
+    <t>hd254p-8x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd254p-20x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wson50p300x300x80-10</t>
+  </si>
+  <si>
+    <t>SON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM3509</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc-82</t>
+  </si>
+  <si>
+    <t>SC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT9013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ind300x300d110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ind470x470x280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do214ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd254p-2x2</t>
+  </si>
+  <si>
+    <t>wson40p300x300x80-12</t>
+  </si>
+  <si>
+    <t>SON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS65133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indc2520</t>
+  </si>
+  <si>
+    <t>电感2510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片式功率电感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功率电感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indc260x280x120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sod323</t>
+  </si>
+  <si>
+    <t>B0530WS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bga65p7000x700-80</t>
+  </si>
+  <si>
+    <t>tc358870xbg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdso-g5</t>
+  </si>
+  <si>
+    <t>pdso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tps3125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdmi-c</t>
+  </si>
+  <si>
+    <t>HDMI TYPEA接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lqfp50p900x900-64</t>
+  </si>
+  <si>
+    <t>LQFP64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F303CBT6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lga65p400x400-16</t>
+  </si>
+  <si>
+    <t>LGA16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3GD20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lga80p300x500-14</t>
+  </si>
+  <si>
+    <t>LGA14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSM303DLHC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOIC14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS4354</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tssop50p440x970-38</t>
+  </si>
+  <si>
+    <t>TSSOP38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPD12S520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soic127p866x393-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microusb</t>
+  </si>
+  <si>
+    <t>MICRO USB插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>indc0603</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resc0603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>capc0805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>indc0805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resc0805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lqfp50p900x900x160-48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQFP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603贴片电容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603贴片电感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603贴片电阻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0805贴片电容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0805贴片电感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0805贴片电阻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sot230p700x180-4</t>
-  </si>
-  <si>
-    <t>sot223</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tps70933</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xtal-hc49s</t>
-  </si>
-  <si>
-    <t>hc49s直插晶振</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HC49S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lqfp50p1200x1200x160-64</t>
-  </si>
-  <si>
-    <t>LQFP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stm32f103rbt6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hd254p-2x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.54间距排针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hd254p-3x1</t>
-  </si>
-  <si>
-    <t>hd254p-15x2</t>
-  </si>
-  <si>
-    <t>sh254p-10x2</t>
-  </si>
-  <si>
-    <t>2.54间距排针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.54间距牛角座10X2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">JLINK插座 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dcin350d135</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.35DC插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fusm1812</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1812自恢复保险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sod3716x135</t>
-  </si>
-  <si>
-    <t>SOD123  6.2v稳压管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>capae630x540</t>
-  </si>
-  <si>
-    <t>10uf铝电解电容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sot223</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ams1117-3.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xtal32768</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时钟晶振</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>sot23</t>
+  </si>
+  <si>
+    <t>贴片三极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2SC2712Y</t>
   </si>
   <si>
     <t>sw-pw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>滑动开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ledm0603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603led</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>machd2</t>
-  </si>
-  <si>
-    <t>直径为2的机械孔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soic127p600x175-8</t>
-  </si>
-  <si>
-    <t>soic8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LM393</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rt-wh06-2</t>
-  </si>
-  <si>
-    <t>电位器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电位器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to263-5l</t>
-  </si>
-  <si>
-    <t>xl6009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inm120x120x70</t>
-  </si>
-  <si>
-    <t>12*12*7贴片功率电感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>do-214aa</t>
-  </si>
-  <si>
-    <t>1N5824二极管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>capae800x1050</t>
-  </si>
-  <si>
-    <t>8*10.5铝电解电容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ths5r00d1r00</t>
-  </si>
-  <si>
-    <t>方形通孔焊盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>axe650124</t>
-  </si>
-  <si>
-    <t>TI电源管理IC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>板间连接器0.4间距，50PIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>松下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3X3X1.1CM功率电感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.7X4.7X2.8功率电感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hd254p-8x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hd254p-10x1</t>
-  </si>
-  <si>
-    <t>hd254p-6x2</t>
-  </si>
-  <si>
-    <t>hd254p-8x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hd254p-20x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wson50p300x300x80-10</t>
-  </si>
-  <si>
-    <t>SON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LM3509</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc-82</t>
-  </si>
-  <si>
-    <t>SC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RT9013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ind300x300d110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ind470x470x280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>do214ab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hd254p-2x2</t>
-  </si>
-  <si>
-    <t>wson40p300x300x80-12</t>
-  </si>
-  <si>
-    <t>SON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPS65133</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>indc2520</t>
-  </si>
-  <si>
-    <t>电感2510</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>片式功率电感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功率电感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>indc260x280x120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sod323</t>
-  </si>
-  <si>
-    <t>B0530WS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二极管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bga65p7000x700-80</t>
-  </si>
-  <si>
-    <t>gba</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tc358870xbg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pdso-g5</t>
-  </si>
-  <si>
-    <t>pdso</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tps3125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdmi-c</t>
-  </si>
-  <si>
-    <t>HDMI TYPEA接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lqfp50p900x900-64</t>
-  </si>
-  <si>
-    <t>LQFP64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STM32F303CBT6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lga65p400x400-16</t>
-  </si>
-  <si>
-    <t>LGA16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L3GD20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lga80p300x500-14</t>
-  </si>
-  <si>
-    <t>LGA14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LSM303DLHC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soic127p866x393-14</t>
-  </si>
-  <si>
-    <t>SOIC14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS4354</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tssop50p440x970-38</t>
-  </si>
-  <si>
-    <t>TSSOP38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPD12S520</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>dfn0r65d300x300-8</t>
+  </si>
+  <si>
+    <t>DFN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT9187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sop127p490x390-8</t>
+  </si>
+  <si>
+    <t>SOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT9025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>osc-48m</t>
+  </si>
+  <si>
+    <t>4脚贴片晶振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd254p-5x1</t>
   </si>
 </sst>
 </file>
@@ -837,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -863,10 +913,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -877,494 +927,551 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
         <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
         <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
         <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
         <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
         <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
         <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
         <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
         <v>56</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="B27" t="s">
-        <v>61</v>
-      </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
         <v>70</v>
       </c>
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
         <v>85</v>
-      </c>
-      <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
         <v>92</v>
-      </c>
-      <c r="B45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
         <v>95</v>
       </c>
-      <c r="B46" t="s">
-        <v>97</v>
-      </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
         <v>100</v>
       </c>
-      <c r="B48" t="s">
-        <v>102</v>
-      </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
         <v>124</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/PSMLib/已有封装登记.xlsx
+++ b/PSMLib/已有封装登记.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="142">
   <si>
     <t>封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -537,6 +537,13 @@
   </si>
   <si>
     <t>hd254p-5x1</t>
+  </si>
+  <si>
+    <t>phonejack</t>
+  </si>
+  <si>
+    <t>3.5毫米音频座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -887,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1472,6 +1479,14 @@
       </c>
       <c r="B62" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/PSMLib/已有封装登记.xlsx
+++ b/PSMLib/已有封装登记.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="145">
   <si>
     <t>封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,6 +543,16 @@
   </si>
   <si>
     <t>3.5毫米音频座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfn50p250x100-10</t>
+  </si>
+  <si>
+    <t>DF10G7M1N</t>
+  </si>
+  <si>
+    <t>DFN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -894,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1487,6 +1497,17 @@
       </c>
       <c r="B63" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/PSMLib/已有封装登记.xlsx
+++ b/PSMLib/已有封装登记.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="158">
   <si>
     <t>封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,141 +418,187 @@
     <t>hdmi-c</t>
   </si>
   <si>
+    <t>lqfp50p900x900-64</t>
+  </si>
+  <si>
+    <t>LQFP64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F303CBT6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lga65p400x400-16</t>
+  </si>
+  <si>
+    <t>LGA16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3GD20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lga80p300x500-14</t>
+  </si>
+  <si>
+    <t>LGA14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSM303DLHC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOIC14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS4354</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tssop50p440x970-38</t>
+  </si>
+  <si>
+    <t>TSSOP38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPD12S520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soic127p866x393-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microusb</t>
+  </si>
+  <si>
+    <t>MICRO USB插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indc0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片三极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2SC2712Y</t>
+  </si>
+  <si>
+    <t>sw-pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfn0r65d300x300-8</t>
+  </si>
+  <si>
+    <t>DFN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT9187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sop127p490x390-8</t>
+  </si>
+  <si>
+    <t>SOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT9025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>osc-48m</t>
+  </si>
+  <si>
+    <t>4脚贴片晶振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd254p-5x1</t>
+  </si>
+  <si>
+    <t>phonejack</t>
+  </si>
+  <si>
+    <t>3.5毫米音频座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfn50p250x100-10</t>
+  </si>
+  <si>
+    <t>DF10G7M1N</t>
+  </si>
+  <si>
+    <t>DFN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qfn50p400x400-24</t>
+  </si>
+  <si>
+    <t>QFN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS65130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sot23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indm360x380x100</t>
+  </si>
+  <si>
+    <t>功率电感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VLF4012ST-4R7M1R0</t>
+  </si>
+  <si>
+    <t>powermite</t>
+  </si>
+  <si>
+    <t>肖特基二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBRM120</t>
+  </si>
+  <si>
+    <t>hdmi-a</t>
+  </si>
+  <si>
     <t>HDMI TYPEA接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lqfp50p900x900-64</t>
-  </si>
-  <si>
-    <t>LQFP64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STM32F303CBT6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lga65p400x400-16</t>
-  </si>
-  <si>
-    <t>LGA16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L3GD20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lga80p300x500-14</t>
-  </si>
-  <si>
-    <t>LGA14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LSM303DLHC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOIC14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS4354</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tssop50p440x970-38</t>
-  </si>
-  <si>
-    <t>TSSOP38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPD12S520</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bga</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soic127p866x393-14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>microusb</t>
-  </si>
-  <si>
-    <t>MICRO USB插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>indc0603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sot23</t>
-  </si>
-  <si>
-    <t>贴片三极管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2SC2712Y</t>
-  </si>
-  <si>
-    <t>sw-pw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dfn0r65d300x300-8</t>
-  </si>
-  <si>
-    <t>DFN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RT9187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sop127p490x390-8</t>
-  </si>
-  <si>
-    <t>SOP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RT9025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>osc-48m</t>
-  </si>
-  <si>
-    <t>4脚贴片晶振</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hd254p-5x1</t>
-  </si>
-  <si>
-    <t>phonejack</t>
-  </si>
-  <si>
-    <t>3.5毫米音频座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dfn50p250x100-10</t>
-  </si>
-  <si>
-    <t>DF10G7M1N</t>
-  </si>
-  <si>
-    <t>DFN</t>
+    <t>HDMI TYPEC接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miniusb</t>
+  </si>
+  <si>
+    <t>MINI usb接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -904,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -949,7 +995,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -1105,7 +1151,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
@@ -1354,7 +1400,7 @@
         <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
         <v>102</v>
@@ -1376,116 +1422,116 @@
         <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" t="s">
         <v>108</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>109</v>
-      </c>
-      <c r="C52" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" t="s">
         <v>111</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>112</v>
-      </c>
-      <c r="C53" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
         <v>114</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>115</v>
-      </c>
-      <c r="C54" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" t="s">
         <v>117</v>
-      </c>
-      <c r="C55" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
         <v>119</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>120</v>
-      </c>
-      <c r="C56" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" t="s">
         <v>124</v>
-      </c>
-      <c r="C57" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" t="s">
         <v>127</v>
-      </c>
-      <c r="B58" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" t="s">
         <v>131</v>
-      </c>
-      <c r="B59" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" t="s">
         <v>134</v>
-      </c>
-      <c r="B60" t="s">
-        <v>135</v>
-      </c>
-      <c r="C60" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B62" t="s">
         <v>27</v>
@@ -1493,21 +1539,70 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" t="s">
         <v>142</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" t="s">
         <v>144</v>
       </c>
-      <c r="C64" t="s">
-        <v>143</v>
+      <c r="C65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/PSMLib/已有封装登记.xlsx
+++ b/PSMLib/已有封装登记.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="168">
   <si>
     <t>封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -599,6 +599,42 @@
   </si>
   <si>
     <t>MINI usb接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw600x600x500-90</t>
+  </si>
+  <si>
+    <t>轻触开关90度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp7b-p050va1</t>
+  </si>
+  <si>
+    <t>板间连接器0.4间距，50PIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏普液晶屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>led_mult</t>
+  </si>
+  <si>
+    <t>双色90度LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lga50p400x400x60-12</t>
+  </si>
+  <si>
+    <t>LGA封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCP374</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -950,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1603,6 +1639,44 @@
       </c>
       <c r="B69" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>158</v>
+      </c>
+      <c r="B70" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>160</v>
+      </c>
+      <c r="B71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/PSMLib/已有封装登记.xlsx
+++ b/PSMLib/已有封装登记.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="171">
   <si>
     <t>封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -635,14 +635,25 @@
   </si>
   <si>
     <t>NCP374</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sot23-6</t>
+  </si>
+  <si>
+    <t>SY7200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT23-6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,7 +711,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -774,7 +785,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -809,7 +819,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -985,21 +994,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="28.375" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1021,7 +1030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1029,7 +1038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -1037,7 +1046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1045,7 +1054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1053,7 +1062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1061,7 +1070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1069,7 +1078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1080,7 +1089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1091,7 +1100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1102,7 +1111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1110,7 +1119,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1118,7 +1127,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1126,7 +1135,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1137,7 +1146,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1145,7 +1154,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1153,7 +1162,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1161,7 +1170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1169,7 +1178,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1177,7 +1186,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1185,7 +1194,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>128</v>
       </c>
@@ -1193,7 +1202,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1201,7 +1210,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1209,7 +1218,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1220,7 +1229,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -1231,7 +1240,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1242,7 +1251,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1253,7 +1262,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1261,7 +1270,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -1269,7 +1278,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1277,7 +1286,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -1288,7 +1297,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -1296,7 +1305,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -1304,7 +1313,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -1312,7 +1321,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -1320,7 +1329,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -1328,7 +1337,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1336,7 +1345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -1344,7 +1353,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -1352,7 +1361,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -1360,7 +1369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -1371,7 +1380,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -1382,7 +1391,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -1390,7 +1399,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -1401,7 +1410,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -1412,7 +1421,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -1420,7 +1429,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>98</v>
       </c>
@@ -1431,7 +1440,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>101</v>
       </c>
@@ -1442,7 +1451,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -1453,7 +1462,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -1461,7 +1470,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>107</v>
       </c>
@@ -1472,7 +1481,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -1483,7 +1492,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -1494,7 +1503,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>122</v>
       </c>
@@ -1505,7 +1514,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -1516,7 +1525,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>123</v>
       </c>
@@ -1524,7 +1533,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>146</v>
       </c>
@@ -1535,7 +1544,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>129</v>
       </c>
@@ -1546,7 +1555,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>132</v>
       </c>
@@ -1557,7 +1566,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>135</v>
       </c>
@@ -1565,7 +1574,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>137</v>
       </c>
@@ -1573,7 +1582,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>138</v>
       </c>
@@ -1581,7 +1590,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>140</v>
       </c>
@@ -1592,7 +1601,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>143</v>
       </c>
@@ -1603,7 +1612,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>147</v>
       </c>
@@ -1614,7 +1623,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>150</v>
       </c>
@@ -1625,7 +1634,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>153</v>
       </c>
@@ -1633,7 +1642,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>156</v>
       </c>
@@ -1641,7 +1650,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>158</v>
       </c>
@@ -1649,7 +1658,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>160</v>
       </c>
@@ -1660,7 +1669,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>163</v>
       </c>
@@ -1668,7 +1677,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>165</v>
       </c>
@@ -1677,6 +1686,17 @@
       </c>
       <c r="C73" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>168</v>
+      </c>
+      <c r="B74" t="s">
+        <v>170</v>
+      </c>
+      <c r="C74" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1687,12 +1707,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1701,12 +1721,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PSMLib/已有封装登记.xlsx
+++ b/PSMLib/已有封装登记.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="173">
   <si>
     <t>封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -646,6 +646,14 @@
   </si>
   <si>
     <t>SOT23-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resc1206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片电阻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -995,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1697,6 +1705,17 @@
       </c>
       <c r="C74" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/PSMLib/已有封装登记.xlsx
+++ b/PSMLib/已有封装登记.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="184">
   <si>
     <t>封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,10 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>do214ab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hd254p-2x2</t>
   </si>
   <si>
@@ -654,14 +650,60 @@
   </si>
   <si>
     <t>贴片电阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do-214ac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMAJ70</t>
+  </si>
+  <si>
+    <t>do-214ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuse1206</t>
+  </si>
+  <si>
+    <t>自恢复保险管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca3140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不包含散热焊盘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,6 +756,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -761,7 +806,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -793,9 +838,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -827,6 +873,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1002,21 +1049,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28.375" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +1074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1038,7 +1085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1046,15 +1093,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1062,7 +1109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1070,7 +1117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1078,7 +1125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1086,7 +1133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1097,7 +1144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1108,7 +1155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1119,7 +1166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1127,7 +1174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1135,7 +1182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1143,7 +1190,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1154,7 +1201,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1162,7 +1209,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1170,7 +1217,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1178,7 +1225,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1186,7 +1233,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1194,7 +1241,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1202,15 +1249,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1218,7 +1265,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1226,7 +1273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1237,7 +1284,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -1248,7 +1295,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1259,7 +1306,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1270,7 +1317,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1278,7 +1325,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -1286,7 +1333,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1294,7 +1341,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -1305,7 +1352,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -1313,7 +1360,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -1321,7 +1368,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -1329,15 +1376,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="C36" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -1345,7 +1392,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1353,7 +1400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -1361,7 +1408,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -1369,7 +1416,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -1377,7 +1424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -1388,7 +1435,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -1399,323 +1446,364 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>91</v>
       </c>
-      <c r="C45" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
         <v>93</v>
       </c>
-      <c r="B46" t="s">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="C46" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>97</v>
       </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
         <v>98</v>
       </c>
-      <c r="B48" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>100</v>
       </c>
-      <c r="C48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" t="s">
         <v>101</v>
       </c>
-      <c r="B49" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>121</v>
       </c>
-      <c r="C49" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B55" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
         <v>122</v>
       </c>
-      <c r="B55" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
+      <c r="C57" t="s">
         <v>123</v>
       </c>
-      <c r="C57" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="s">
         <v>126</v>
       </c>
-      <c r="C58" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" t="s">
         <v>129</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>130</v>
       </c>
-      <c r="C59" t="s">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
         <v>132</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>133</v>
       </c>
-      <c r="C60" t="s">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
         <v>135</v>
       </c>
-      <c r="B61" t="s">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>137</v>
       </c>
       <c r="B62" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" t="s">
         <v>138</v>
       </c>
-      <c r="B63" t="s">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" t="s">
         <v>140</v>
       </c>
-      <c r="B64" t="s">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
         <v>142</v>
       </c>
-      <c r="C64" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
         <v>143</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>144</v>
       </c>
-      <c r="C65" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" t="s">
         <v>147</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>148</v>
       </c>
-      <c r="C66" t="s">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
         <v>150</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>151</v>
       </c>
-      <c r="C67" t="s">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
         <v>153</v>
       </c>
-      <c r="B68" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" t="s">
         <v>156</v>
       </c>
-      <c r="B69" t="s">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
         <v>158</v>
       </c>
-      <c r="B70" t="s">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
         <v>160</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>161</v>
       </c>
-      <c r="C71" t="s">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
         <v>163</v>
       </c>
-      <c r="B72" t="s">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
         <v>165</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>166</v>
       </c>
-      <c r="C73" t="s">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" t="s">
         <v>168</v>
       </c>
-      <c r="B74" t="s">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
         <v>170</v>
       </c>
-      <c r="C74" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
+      <c r="B75" t="s">
+        <v>170</v>
+      </c>
+      <c r="C75" t="s">
         <v>171</v>
       </c>
-      <c r="B75" t="s">
-        <v>171</v>
-      </c>
-      <c r="C75" t="s">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
         <v>172</v>
+      </c>
+      <c r="B76" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>181</v>
+      </c>
+      <c r="B79" t="s">
+        <v>182</v>
+      </c>
+      <c r="C79" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1726,12 +1814,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1740,12 +1828,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PSMLib/已有封装登记.xlsx
+++ b/PSMLib/已有封装登记.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="190">
   <si>
     <t>封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -696,6 +696,29 @@
   </si>
   <si>
     <t>不包含散热焊盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp0r90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9内径通孔，测试点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd396p-4x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*1插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd396p-2x1</t>
+  </si>
+  <si>
+    <t>2*1插座</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1050,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1804,6 +1827,30 @@
       </c>
       <c r="C79" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>184</v>
+      </c>
+      <c r="B80" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>186</v>
+      </c>
+      <c r="B81" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>188</v>
+      </c>
+      <c r="B82" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/PSMLib/已有封装登记.xlsx
+++ b/PSMLib/已有封装登记.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="202">
   <si>
     <t>封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -719,14 +719,56 @@
   </si>
   <si>
     <t>2*1插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key-7r5x7x0r6</t>
+  </si>
+  <si>
+    <t>7.5*7.5*0.6薄片开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smd-5032</t>
+  </si>
+  <si>
+    <t>2脚贴片晶振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd200p-10x1</t>
+  </si>
+  <si>
+    <t>2.0间距插针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key-hf</t>
+  </si>
+  <si>
+    <t>半圆型PCB按键封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key-3x6x3r5</t>
+  </si>
+  <si>
+    <t>侧按按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fpc-1h-6</t>
+  </si>
+  <si>
+    <t>立式1MM间距6PIN FPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -829,7 +871,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -861,10 +903,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -896,7 +937,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1072,21 +1112,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="28.375" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1108,7 +1148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1116,7 +1156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -1124,7 +1164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1132,7 +1172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1140,7 +1180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1148,7 +1188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1156,7 +1196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1167,7 +1207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1178,7 +1218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1189,7 +1229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1197,7 +1237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1205,7 +1245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1213,7 +1253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1224,7 +1264,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1232,7 +1272,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1240,7 +1280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1248,7 +1288,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1256,7 +1296,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1264,7 +1304,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1272,7 +1312,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -1280,7 +1320,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1288,7 +1328,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1296,7 +1336,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1307,7 +1347,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -1318,7 +1358,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1329,7 +1369,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1340,7 +1380,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1348,7 +1388,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -1356,7 +1396,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1364,7 +1404,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -1375,7 +1415,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -1383,7 +1423,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -1391,7 +1431,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -1399,7 +1439,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>175</v>
       </c>
@@ -1407,7 +1447,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -1415,7 +1455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1423,7 +1463,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -1431,7 +1471,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -1439,7 +1479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -1447,7 +1487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -1458,7 +1498,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -1469,7 +1509,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -1477,7 +1517,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -1488,7 +1528,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -1499,7 +1539,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -1507,7 +1547,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -1518,7 +1558,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>100</v>
       </c>
@@ -1529,7 +1569,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>102</v>
       </c>
@@ -1540,7 +1580,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>105</v>
       </c>
@@ -1548,7 +1588,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>106</v>
       </c>
@@ -1559,7 +1599,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -1570,7 +1610,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -1581,7 +1621,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>121</v>
       </c>
@@ -1592,7 +1632,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -1603,7 +1643,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -1611,7 +1651,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>145</v>
       </c>
@@ -1622,7 +1662,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>128</v>
       </c>
@@ -1633,7 +1673,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -1644,7 +1684,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -1652,7 +1692,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>136</v>
       </c>
@@ -1660,7 +1700,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>137</v>
       </c>
@@ -1668,7 +1708,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -1679,7 +1719,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -1690,7 +1730,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>146</v>
       </c>
@@ -1701,7 +1741,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>149</v>
       </c>
@@ -1712,7 +1752,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>152</v>
       </c>
@@ -1720,7 +1760,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>155</v>
       </c>
@@ -1728,7 +1768,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>157</v>
       </c>
@@ -1736,7 +1776,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>159</v>
       </c>
@@ -1747,7 +1787,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>162</v>
       </c>
@@ -1755,7 +1795,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>164</v>
       </c>
@@ -1766,7 +1806,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>167</v>
       </c>
@@ -1777,7 +1817,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>170</v>
       </c>
@@ -1788,7 +1828,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>172</v>
       </c>
@@ -1799,7 +1839,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>176</v>
       </c>
@@ -1807,7 +1847,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>178</v>
       </c>
@@ -1818,7 +1858,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>181</v>
       </c>
@@ -1829,7 +1869,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>184</v>
       </c>
@@ -1837,7 +1877,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>186</v>
       </c>
@@ -1845,12 +1885,60 @@
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>188</v>
       </c>
       <c r="B82" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>190</v>
+      </c>
+      <c r="B83" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>192</v>
+      </c>
+      <c r="B84" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>194</v>
+      </c>
+      <c r="B85" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>196</v>
+      </c>
+      <c r="B86" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>198</v>
+      </c>
+      <c r="B87" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1861,12 +1949,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1875,12 +1963,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
